--- a/data/pca/factorExposure/factorExposure_2009-07-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01663158300417659</v>
+        <v>0.01653476995503004</v>
       </c>
       <c r="C2">
-        <v>0.001410405763922714</v>
+        <v>0.0009478483803161002</v>
       </c>
       <c r="D2">
-        <v>0.007888975767794945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009344877448628306</v>
+      </c>
+      <c r="E2">
+        <v>0.001303679023273068</v>
+      </c>
+      <c r="F2">
+        <v>0.01232960458460684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09108136297875874</v>
+        <v>0.09153129796170192</v>
       </c>
       <c r="C4">
-        <v>0.01967239746961424</v>
+        <v>0.01458062723573195</v>
       </c>
       <c r="D4">
-        <v>0.07286991143787194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08309774588656951</v>
+      </c>
+      <c r="E4">
+        <v>0.02842575895931366</v>
+      </c>
+      <c r="F4">
+        <v>-0.0318972359348789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1525389936084971</v>
+        <v>0.1609438729886725</v>
       </c>
       <c r="C6">
-        <v>0.02885370151751169</v>
+        <v>0.02802133964909537</v>
       </c>
       <c r="D6">
-        <v>-0.03114798942938479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02694189857397204</v>
+      </c>
+      <c r="E6">
+        <v>0.008869912809865949</v>
+      </c>
+      <c r="F6">
+        <v>-0.04223239891745356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06183049686775803</v>
+        <v>0.06267564328897549</v>
       </c>
       <c r="C7">
-        <v>0.00228450090140257</v>
+        <v>-0.00156312401041602</v>
       </c>
       <c r="D7">
-        <v>0.04440214735759739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05250316963538183</v>
+      </c>
+      <c r="E7">
+        <v>0.01325742895995014</v>
+      </c>
+      <c r="F7">
+        <v>-0.04858823588001256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06211790484795821</v>
+        <v>0.05776459477499572</v>
       </c>
       <c r="C8">
-        <v>-0.01065543776689344</v>
+        <v>-0.01247050774741519</v>
       </c>
       <c r="D8">
-        <v>0.0262087083430644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03065636971044559</v>
+      </c>
+      <c r="E8">
+        <v>0.01706483453854428</v>
+      </c>
+      <c r="F8">
+        <v>0.02604652210400799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07077728042004011</v>
+        <v>0.07075078390480768</v>
       </c>
       <c r="C9">
-        <v>0.01651444093231223</v>
+        <v>0.01035633537090654</v>
       </c>
       <c r="D9">
-        <v>0.07347981120384139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08620081869170144</v>
+      </c>
+      <c r="E9">
+        <v>0.02496395246673499</v>
+      </c>
+      <c r="F9">
+        <v>-0.04847165767460625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08502295256204719</v>
+        <v>0.08882964034672644</v>
       </c>
       <c r="C10">
-        <v>0.014250547142973</v>
+        <v>0.02137242148744166</v>
       </c>
       <c r="D10">
-        <v>-0.1658338468195076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1603194214956194</v>
+      </c>
+      <c r="E10">
+        <v>-0.03275363010693367</v>
+      </c>
+      <c r="F10">
+        <v>0.05737315507375429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09161625140582264</v>
+        <v>0.08785178405824269</v>
       </c>
       <c r="C11">
-        <v>0.01743464826957237</v>
+        <v>0.01122286627048106</v>
       </c>
       <c r="D11">
-        <v>0.1052993611121781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1177854161800334</v>
+      </c>
+      <c r="E11">
+        <v>0.04783057527143834</v>
+      </c>
+      <c r="F11">
+        <v>-0.02304798649841985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0963058279732743</v>
+        <v>0.09036955961061169</v>
       </c>
       <c r="C12">
-        <v>0.01514593813714039</v>
+        <v>0.008303016757144826</v>
       </c>
       <c r="D12">
-        <v>0.1084510696216401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320691479558665</v>
+      </c>
+      <c r="E12">
+        <v>0.04678987564729765</v>
+      </c>
+      <c r="F12">
+        <v>-0.02967930689708105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04400745382579253</v>
+        <v>0.04351263099052805</v>
       </c>
       <c r="C13">
-        <v>0.005713454240877843</v>
+        <v>0.002396075269787276</v>
       </c>
       <c r="D13">
-        <v>0.03592417883284893</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05343139200494584</v>
+      </c>
+      <c r="E13">
+        <v>-0.0006366094185664234</v>
+      </c>
+      <c r="F13">
+        <v>-0.003850393840522305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01848576534079001</v>
+        <v>0.02322940787588539</v>
       </c>
       <c r="C14">
-        <v>0.01490824972860971</v>
+        <v>0.01357681521675452</v>
       </c>
       <c r="D14">
-        <v>0.026923007142864</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03308876657103282</v>
+      </c>
+      <c r="E14">
+        <v>0.01832947788853239</v>
+      </c>
+      <c r="F14">
+        <v>-0.01303235619592147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03342763141855331</v>
+        <v>0.03326787417435292</v>
       </c>
       <c r="C15">
-        <v>0.007397654288352403</v>
+        <v>0.005194052342626133</v>
       </c>
       <c r="D15">
-        <v>0.03927912855598235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04636325675686</v>
+      </c>
+      <c r="E15">
+        <v>0.007671350512206161</v>
+      </c>
+      <c r="F15">
+        <v>-0.02950036600599495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07564681999566313</v>
+        <v>0.07304684981898399</v>
       </c>
       <c r="C16">
-        <v>0.007850499997284995</v>
+        <v>0.001502715087813189</v>
       </c>
       <c r="D16">
-        <v>0.1065141919581172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284248146027585</v>
+      </c>
+      <c r="E16">
+        <v>0.06201353513488353</v>
+      </c>
+      <c r="F16">
+        <v>-0.02566453207925043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0002909780089577969</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.000269853333894619</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001454293308033329</v>
+      </c>
+      <c r="E17">
+        <v>0.001070707334317259</v>
+      </c>
+      <c r="F17">
+        <v>0.002380591572317056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01830472212377441</v>
+        <v>0.03944873667321434</v>
       </c>
       <c r="C18">
-        <v>-0.003261541705641422</v>
+        <v>-0.002958508380894229</v>
       </c>
       <c r="D18">
-        <v>0.02908572463877328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01536050655171669</v>
+      </c>
+      <c r="E18">
+        <v>-0.00774472246979193</v>
+      </c>
+      <c r="F18">
+        <v>0.00873268525950782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0640472759867344</v>
+        <v>0.06248889381927711</v>
       </c>
       <c r="C20">
-        <v>0.005783932141410661</v>
+        <v>0.0008431546330231719</v>
       </c>
       <c r="D20">
-        <v>0.06380685260471927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07851415741396399</v>
+      </c>
+      <c r="E20">
+        <v>0.05739282424603338</v>
+      </c>
+      <c r="F20">
+        <v>-0.0289512087254123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03853413644631596</v>
+        <v>0.04163691583508435</v>
       </c>
       <c r="C21">
-        <v>0.009735603221014034</v>
+        <v>0.006612890718798198</v>
       </c>
       <c r="D21">
-        <v>0.03513571673432545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03760504502814081</v>
+      </c>
+      <c r="E21">
+        <v>-0.000830095565271945</v>
+      </c>
+      <c r="F21">
+        <v>0.02679697480124034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04145776696235484</v>
+        <v>0.04471742932411008</v>
       </c>
       <c r="C22">
-        <v>0.00188191310590565</v>
+        <v>0.0007855055245958232</v>
       </c>
       <c r="D22">
-        <v>-0.003467615873097493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.005877585857264395</v>
+      </c>
+      <c r="E22">
+        <v>0.03616930149160145</v>
+      </c>
+      <c r="F22">
+        <v>0.05071915862820237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04142064742389783</v>
+        <v>0.04469336458323691</v>
       </c>
       <c r="C23">
-        <v>0.001871525478531804</v>
+        <v>0.0007765666573912317</v>
       </c>
       <c r="D23">
-        <v>-0.003444554962569004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.005892024472943049</v>
+      </c>
+      <c r="E23">
+        <v>0.03635205947903113</v>
+      </c>
+      <c r="F23">
+        <v>0.0506912437827271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08228937237239872</v>
+        <v>0.07882941822950437</v>
       </c>
       <c r="C24">
-        <v>0.008152448539550305</v>
+        <v>0.002160760678149665</v>
       </c>
       <c r="D24">
-        <v>0.1099815756612297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1207115168829892</v>
+      </c>
+      <c r="E24">
+        <v>0.04971674781742212</v>
+      </c>
+      <c r="F24">
+        <v>-0.02829049853623193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0878546525137338</v>
+        <v>0.08401661869474472</v>
       </c>
       <c r="C25">
-        <v>0.01087594044472721</v>
+        <v>0.004885889352046971</v>
       </c>
       <c r="D25">
-        <v>0.09562283712059892</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1099002504803097</v>
+      </c>
+      <c r="E25">
+        <v>0.03297283079517596</v>
+      </c>
+      <c r="F25">
+        <v>-0.02614742122752466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05817283634267822</v>
+        <v>0.05972947259852556</v>
       </c>
       <c r="C26">
-        <v>0.0173703683537709</v>
+        <v>0.01444357088147823</v>
       </c>
       <c r="D26">
-        <v>0.02382051877222069</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04313382825964582</v>
+      </c>
+      <c r="E26">
+        <v>0.0296285759915701</v>
+      </c>
+      <c r="F26">
+        <v>0.009071277597088678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1333036931030478</v>
+        <v>0.1419547559327882</v>
       </c>
       <c r="C28">
-        <v>0.01302467393247191</v>
+        <v>0.02283850478431523</v>
       </c>
       <c r="D28">
-        <v>-0.2699829928080503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609129517917301</v>
+      </c>
+      <c r="E28">
+        <v>-0.06859586498029664</v>
+      </c>
+      <c r="F28">
+        <v>-0.005449617351415349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02529842220920962</v>
+        <v>0.02864450036540754</v>
       </c>
       <c r="C29">
-        <v>0.009685263353834397</v>
+        <v>0.008769291623196521</v>
       </c>
       <c r="D29">
-        <v>0.02528849748498992</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03094809111846969</v>
+      </c>
+      <c r="E29">
+        <v>0.01323242510287548</v>
+      </c>
+      <c r="F29">
+        <v>0.01315184970977106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06330449001591587</v>
+        <v>0.05912897012266701</v>
       </c>
       <c r="C30">
-        <v>0.009600647504456251</v>
+        <v>0.00264530197503972</v>
       </c>
       <c r="D30">
-        <v>0.07077933584620016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.087339015778954</v>
+      </c>
+      <c r="E30">
+        <v>0.01411872885179267</v>
+      </c>
+      <c r="F30">
+        <v>-0.0785597928619107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05017355297282813</v>
+        <v>0.05114713360204037</v>
       </c>
       <c r="C31">
-        <v>0.01718882078872397</v>
+        <v>0.01603154882055282</v>
       </c>
       <c r="D31">
-        <v>0.02207041744372999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02496561551871962</v>
+      </c>
+      <c r="E31">
+        <v>0.02900554285735626</v>
+      </c>
+      <c r="F31">
+        <v>0.0007836111487432686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04726969667831687</v>
+        <v>0.05122438471955171</v>
       </c>
       <c r="C32">
-        <v>0.002316397472393684</v>
+        <v>-0.00160983055867547</v>
       </c>
       <c r="D32">
-        <v>0.02225618283437355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03452339754469682</v>
+      </c>
+      <c r="E32">
+        <v>0.03245213222026158</v>
+      </c>
+      <c r="F32">
+        <v>-0.002717907393171502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0914751531459197</v>
+        <v>0.08958637536444523</v>
       </c>
       <c r="C33">
-        <v>0.01366186687461955</v>
+        <v>0.006927026809089781</v>
       </c>
       <c r="D33">
-        <v>0.08345560269162762</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1034175429482025</v>
+      </c>
+      <c r="E33">
+        <v>0.04683405773417151</v>
+      </c>
+      <c r="F33">
+        <v>-0.04275184518220902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06937761119583725</v>
+        <v>0.06757875008968756</v>
       </c>
       <c r="C34">
-        <v>0.01559474392429622</v>
+        <v>0.0103915749762861</v>
       </c>
       <c r="D34">
-        <v>0.09082869752721733</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1095678067916443</v>
+      </c>
+      <c r="E34">
+        <v>0.03602770728613347</v>
+      </c>
+      <c r="F34">
+        <v>-0.03339736939293799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02449174202941463</v>
+        <v>0.02654257557495835</v>
       </c>
       <c r="C35">
-        <v>0.003293012317266676</v>
+        <v>0.003068787421026944</v>
       </c>
       <c r="D35">
-        <v>0.00671467390112935</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01239432470923322</v>
+      </c>
+      <c r="E35">
+        <v>0.01311371913266469</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008691267604416123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02583761887405388</v>
+        <v>0.02774171774711277</v>
       </c>
       <c r="C36">
-        <v>0.007737689710436667</v>
+        <v>0.006923554211784267</v>
       </c>
       <c r="D36">
-        <v>0.03866858477097826</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03912499663374532</v>
+      </c>
+      <c r="E36">
+        <v>0.01699093569931364</v>
+      </c>
+      <c r="F36">
+        <v>-0.01392762792709879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001021826917379438</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007464487346944262</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002473391151429762</v>
+      </c>
+      <c r="E37">
+        <v>0.0001267881733505486</v>
+      </c>
+      <c r="F37">
+        <v>0.001862988244139778</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1137000319239684</v>
+        <v>0.102063634888621</v>
       </c>
       <c r="C39">
-        <v>0.02371578760340263</v>
+        <v>0.01618067204175148</v>
       </c>
       <c r="D39">
-        <v>0.1433973281738882</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1515234143561792</v>
+      </c>
+      <c r="E39">
+        <v>0.06002578359778128</v>
+      </c>
+      <c r="F39">
+        <v>-0.0207423083533478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03865231684678364</v>
+        <v>0.04325281916328343</v>
       </c>
       <c r="C40">
-        <v>0.009303200899775467</v>
+        <v>0.007650525976831431</v>
       </c>
       <c r="D40">
-        <v>0.01820137739080904</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03252614761932249</v>
+      </c>
+      <c r="E40">
+        <v>0.002021489797267279</v>
+      </c>
+      <c r="F40">
+        <v>0.01595187120579509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02536692215044338</v>
+        <v>0.02782803006758475</v>
       </c>
       <c r="C41">
-        <v>0.007441243351945314</v>
+        <v>0.006907515188916963</v>
       </c>
       <c r="D41">
-        <v>0.008838566912482016</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01086047902421099</v>
+      </c>
+      <c r="E41">
+        <v>0.01229597970818333</v>
+      </c>
+      <c r="F41">
+        <v>0.007687034175644265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0422751107571005</v>
+        <v>0.04044416005188826</v>
       </c>
       <c r="C43">
-        <v>0.008398980254702291</v>
+        <v>0.007659023855891848</v>
       </c>
       <c r="D43">
-        <v>0.01594727670599793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01956380219550057</v>
+      </c>
+      <c r="E43">
+        <v>0.02573742731281376</v>
+      </c>
+      <c r="F43">
+        <v>0.01652017856177646</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07068598354601338</v>
+        <v>0.07912173193397183</v>
       </c>
       <c r="C44">
-        <v>0.02531061489939124</v>
+        <v>0.0195192132009445</v>
       </c>
       <c r="D44">
-        <v>0.09163510945213017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09632759574541347</v>
+      </c>
+      <c r="E44">
+        <v>0.06270362752240501</v>
+      </c>
+      <c r="F44">
+        <v>-0.1676689271194564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02160975725342409</v>
+        <v>0.02459606278398491</v>
       </c>
       <c r="C46">
-        <v>0.004355723041479525</v>
+        <v>0.003680802822658923</v>
       </c>
       <c r="D46">
-        <v>0.00474507084994678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01323978221681802</v>
+      </c>
+      <c r="E46">
+        <v>0.02732288493518035</v>
+      </c>
+      <c r="F46">
+        <v>0.005495843791699991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05256895119406875</v>
+        <v>0.0523459043216901</v>
       </c>
       <c r="C47">
-        <v>0.005024365012009284</v>
+        <v>0.004332387871229589</v>
       </c>
       <c r="D47">
-        <v>0.008147242776754444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01090920658185295</v>
+      </c>
+      <c r="E47">
+        <v>0.02302214115751645</v>
+      </c>
+      <c r="F47">
+        <v>0.03286897819281879</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04809568930789472</v>
+        <v>0.05078158302230684</v>
       </c>
       <c r="C48">
-        <v>0.004708518604132733</v>
+        <v>0.002190471617099271</v>
       </c>
       <c r="D48">
-        <v>0.04366256832844167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05004321149185193</v>
+      </c>
+      <c r="E48">
+        <v>-0.004717657381085747</v>
+      </c>
+      <c r="F48">
+        <v>-0.01224543521272855</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2016457827216356</v>
+        <v>0.2004936156130463</v>
       </c>
       <c r="C49">
-        <v>0.02229546976237129</v>
+        <v>0.01994340407082512</v>
       </c>
       <c r="D49">
-        <v>-0.01481615069820784</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005059865467956548</v>
+      </c>
+      <c r="E49">
+        <v>0.03208198564109464</v>
+      </c>
+      <c r="F49">
+        <v>-0.04761858276386371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04955756370002479</v>
+        <v>0.05175023626987549</v>
       </c>
       <c r="C50">
-        <v>0.01318962297088875</v>
+        <v>0.01176750443426907</v>
       </c>
       <c r="D50">
-        <v>0.02259294173680931</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02327925038560098</v>
+      </c>
+      <c r="E50">
+        <v>0.0301074617132113</v>
+      </c>
+      <c r="F50">
+        <v>-0.01013357063233979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1557942430858195</v>
+        <v>0.1494665252116985</v>
       </c>
       <c r="C52">
-        <v>0.02071411860609436</v>
+        <v>0.01871883713786577</v>
       </c>
       <c r="D52">
-        <v>0.04777849114630404</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04238577712278196</v>
+      </c>
+      <c r="E52">
+        <v>0.02307161305174279</v>
+      </c>
+      <c r="F52">
+        <v>-0.04297755654512805</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1742634118604203</v>
+        <v>0.1697240197222376</v>
       </c>
       <c r="C53">
-        <v>0.02097249339144498</v>
+        <v>0.02142343584629465</v>
       </c>
       <c r="D53">
-        <v>0.01176195630664719</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005697567370371318</v>
+      </c>
+      <c r="E53">
+        <v>0.03058471887272956</v>
+      </c>
+      <c r="F53">
+        <v>-0.07537282919858786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01669710970906351</v>
+        <v>0.01916547043517792</v>
       </c>
       <c r="C54">
-        <v>0.01226160897651873</v>
+        <v>0.01092173417155106</v>
       </c>
       <c r="D54">
-        <v>0.02808733819590195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03394455605802355</v>
+      </c>
+      <c r="E54">
+        <v>0.02136540664743535</v>
+      </c>
+      <c r="F54">
+        <v>0.001574004614554259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1172644537387961</v>
+        <v>0.1162870972416517</v>
       </c>
       <c r="C55">
-        <v>0.01866319648371749</v>
+        <v>0.01872835659829925</v>
       </c>
       <c r="D55">
-        <v>0.01012448902883604</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008710798186807351</v>
+      </c>
+      <c r="E55">
+        <v>0.02611961271268731</v>
+      </c>
+      <c r="F55">
+        <v>-0.04771022664544616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.180037465492844</v>
+        <v>0.1757906547461311</v>
       </c>
       <c r="C56">
-        <v>0.01880601372688797</v>
+        <v>0.01941299574252946</v>
       </c>
       <c r="D56">
-        <v>0.004801860105044332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002429389490908195</v>
+      </c>
+      <c r="E56">
+        <v>0.03309170413545878</v>
+      </c>
+      <c r="F56">
+        <v>-0.05468386446220361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04874177997707538</v>
+        <v>0.04606993144676733</v>
       </c>
       <c r="C58">
-        <v>0.005823763298715666</v>
+        <v>-0.0003147787458617663</v>
       </c>
       <c r="D58">
-        <v>0.06079455961660829</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07475615258122999</v>
+      </c>
+      <c r="E58">
+        <v>0.03558632076524207</v>
+      </c>
+      <c r="F58">
+        <v>0.03627541434446337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1620792673409616</v>
+        <v>0.1667410961566076</v>
       </c>
       <c r="C59">
-        <v>0.01498259797243095</v>
+        <v>0.0230887950434654</v>
       </c>
       <c r="D59">
-        <v>-0.2278208603146098</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2184412525915441</v>
+      </c>
+      <c r="E59">
+        <v>-0.04950709395413684</v>
+      </c>
+      <c r="F59">
+        <v>0.03873737159882219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2389176829397804</v>
+        <v>0.2311731321524785</v>
       </c>
       <c r="C60">
-        <v>0.002842117920032286</v>
+        <v>-0.000432829674442599</v>
       </c>
       <c r="D60">
-        <v>0.04287832865612872</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03956901592354759</v>
+      </c>
+      <c r="E60">
+        <v>0.006363208122475266</v>
+      </c>
+      <c r="F60">
+        <v>-0.003108038654988758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08452515560385832</v>
+        <v>0.07781013123415698</v>
       </c>
       <c r="C61">
-        <v>0.01740859080867046</v>
+        <v>0.01148769246723078</v>
       </c>
       <c r="D61">
-        <v>0.1034940429364014</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1163792573654824</v>
+      </c>
+      <c r="E61">
+        <v>0.0383870019516724</v>
+      </c>
+      <c r="F61">
+        <v>-0.007702237403518414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1709117496848342</v>
+        <v>0.1685930189024857</v>
       </c>
       <c r="C62">
-        <v>0.02245086611396425</v>
+        <v>0.02204518521407533</v>
       </c>
       <c r="D62">
-        <v>0.005329342512189726</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005281155641718792</v>
+      </c>
+      <c r="E62">
+        <v>0.0333010765986344</v>
+      </c>
+      <c r="F62">
+        <v>-0.04071811023191632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04254858108060552</v>
+        <v>0.04627202764420579</v>
       </c>
       <c r="C63">
-        <v>0.005736325937107948</v>
+        <v>0.001793979761447829</v>
       </c>
       <c r="D63">
-        <v>0.04580355111289688</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06032593327399169</v>
+      </c>
+      <c r="E63">
+        <v>0.02493462366496796</v>
+      </c>
+      <c r="F63">
+        <v>-0.0004683704784970038</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1130660795358557</v>
+        <v>0.1107758623156909</v>
       </c>
       <c r="C64">
-        <v>0.01585002793562035</v>
+        <v>0.0124292659943331</v>
       </c>
       <c r="D64">
-        <v>0.03129911999596088</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04255506736152243</v>
+      </c>
+      <c r="E64">
+        <v>0.02352154248633744</v>
+      </c>
+      <c r="F64">
+        <v>-0.02491669168769901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1430103629457586</v>
+        <v>0.1515481884693991</v>
       </c>
       <c r="C65">
-        <v>0.03481840228188576</v>
+        <v>0.03514065609413201</v>
       </c>
       <c r="D65">
-        <v>-0.056085437068506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04766183774064878</v>
+      </c>
+      <c r="E65">
+        <v>0.005083286977197934</v>
+      </c>
+      <c r="F65">
+        <v>-0.03945412800667129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1367959609070728</v>
+        <v>0.1226575447776167</v>
       </c>
       <c r="C66">
-        <v>0.02219417568351055</v>
+        <v>0.01459182181820756</v>
       </c>
       <c r="D66">
-        <v>0.1240345712454445</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1392482910504177</v>
+      </c>
+      <c r="E66">
+        <v>0.06454112820282314</v>
+      </c>
+      <c r="F66">
+        <v>-0.02656185293672821</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0628300004723171</v>
+        <v>0.05597553049916626</v>
       </c>
       <c r="C67">
-        <v>0.005801507747278594</v>
+        <v>0.003219099802495828</v>
       </c>
       <c r="D67">
-        <v>0.05426584162682303</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0567632761531208</v>
+      </c>
+      <c r="E67">
+        <v>0.01765651749127501</v>
+      </c>
+      <c r="F67">
+        <v>0.03438363752608269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.106447057860576</v>
+        <v>0.11669104920595</v>
       </c>
       <c r="C68">
-        <v>0.02316165202947818</v>
+        <v>0.03360431665088291</v>
       </c>
       <c r="D68">
-        <v>-0.2676997007154781</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2613308040777323</v>
+      </c>
+      <c r="E68">
+        <v>-0.08836298872581268</v>
+      </c>
+      <c r="F68">
+        <v>-0.0008151423768590628</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0399328658728963</v>
+        <v>0.0387182294919137</v>
       </c>
       <c r="C69">
-        <v>0.002282426507632744</v>
+        <v>0.001365524446261618</v>
       </c>
       <c r="D69">
-        <v>0.005345944069802184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008334385368134897</v>
+      </c>
+      <c r="E69">
+        <v>0.02401830237196773</v>
+      </c>
+      <c r="F69">
+        <v>0.001115805563248673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0664486566968706</v>
+        <v>0.06703157932969282</v>
       </c>
       <c r="C70">
-        <v>-0.02434383667838337</v>
+        <v>-0.02696400716032079</v>
       </c>
       <c r="D70">
-        <v>-0.004047497957765617</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02526331796458179</v>
+      </c>
+      <c r="E70">
+        <v>-0.03183779006494125</v>
+      </c>
+      <c r="F70">
+        <v>0.1811085317037804</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.125101850217038</v>
+        <v>0.1368279245179147</v>
       </c>
       <c r="C71">
-        <v>0.02725175131971734</v>
+        <v>0.03819048541548824</v>
       </c>
       <c r="D71">
-        <v>-0.2844282151925016</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2714048411442422</v>
+      </c>
+      <c r="E71">
+        <v>-0.09799613761352606</v>
+      </c>
+      <c r="F71">
+        <v>-0.006771181396956059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.138172158815571</v>
+        <v>0.1436098907704114</v>
       </c>
       <c r="C72">
-        <v>0.02800721567484748</v>
+        <v>0.02815957167387562</v>
       </c>
       <c r="D72">
-        <v>0.005259971346485866</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004520470098348258</v>
+      </c>
+      <c r="E72">
+        <v>0.03720135552353311</v>
+      </c>
+      <c r="F72">
+        <v>-0.02933499306462401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2061019019527494</v>
+        <v>0.2045814751312709</v>
       </c>
       <c r="C73">
-        <v>0.01749102042890687</v>
+        <v>0.01357129687590806</v>
       </c>
       <c r="D73">
-        <v>0.009252147129300923</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01793116167052126</v>
+      </c>
+      <c r="E73">
+        <v>0.06679796946483037</v>
+      </c>
+      <c r="F73">
+        <v>-0.04097136097330478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09314315688515636</v>
+        <v>0.09460388174771311</v>
       </c>
       <c r="C74">
-        <v>0.0145588070778863</v>
+        <v>0.01410711419246697</v>
       </c>
       <c r="D74">
-        <v>0.01829419215824634</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01679761910032402</v>
+      </c>
+      <c r="E74">
+        <v>0.04437415563884484</v>
+      </c>
+      <c r="F74">
+        <v>-0.05345568757632668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1337638392720525</v>
+        <v>0.1263183298889618</v>
       </c>
       <c r="C75">
-        <v>0.03100950358702476</v>
+        <v>0.02955545815933769</v>
       </c>
       <c r="D75">
-        <v>0.02919246619896069</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02910997075163577</v>
+      </c>
+      <c r="E75">
+        <v>0.05724237555022903</v>
+      </c>
+      <c r="F75">
+        <v>-0.02141898672318907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08251743617876631</v>
+        <v>0.09014395758337358</v>
       </c>
       <c r="C77">
-        <v>0.01481487132024274</v>
+        <v>0.008545148204100924</v>
       </c>
       <c r="D77">
-        <v>0.1011199889437479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1142700714860508</v>
+      </c>
+      <c r="E77">
+        <v>0.04506579647420226</v>
+      </c>
+      <c r="F77">
+        <v>-0.03335375704919089</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09957765186947647</v>
+        <v>0.1007218892115164</v>
       </c>
       <c r="C78">
-        <v>0.0443623882582387</v>
+        <v>0.03879543444531391</v>
       </c>
       <c r="D78">
-        <v>0.1081391180440565</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1112495359870917</v>
+      </c>
+      <c r="E78">
+        <v>0.07600624152264607</v>
+      </c>
+      <c r="F78">
+        <v>-0.05310418532542676</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1647387450798767</v>
+        <v>0.163140491507934</v>
       </c>
       <c r="C79">
-        <v>0.02560276272557773</v>
+        <v>0.02448136052399616</v>
       </c>
       <c r="D79">
-        <v>0.01166704908946729</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01302633901065967</v>
+      </c>
+      <c r="E79">
+        <v>0.04429900973879085</v>
+      </c>
+      <c r="F79">
+        <v>-0.0127967957749368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08082968328329355</v>
+        <v>0.07931882332037821</v>
       </c>
       <c r="C80">
-        <v>0.001325617400927281</v>
+        <v>-0.0007002983112368404</v>
       </c>
       <c r="D80">
-        <v>0.0501416523448807</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05379747014295407</v>
+      </c>
+      <c r="E80">
+        <v>0.03241728975409891</v>
+      </c>
+      <c r="F80">
+        <v>0.02516679988878193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.120074199845107</v>
+        <v>0.1169432463032669</v>
       </c>
       <c r="C81">
-        <v>0.03289042046520749</v>
+        <v>0.03300929817038711</v>
       </c>
       <c r="D81">
-        <v>0.02233095712941378</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01440444397310043</v>
+      </c>
+      <c r="E81">
+        <v>0.05509245791791213</v>
+      </c>
+      <c r="F81">
+        <v>-0.01929861831115924</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658031375478738</v>
+        <v>0.1653029260376022</v>
       </c>
       <c r="C82">
-        <v>0.02634911330619982</v>
+        <v>0.02688429391145867</v>
       </c>
       <c r="D82">
-        <v>0.0124736186551938</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002503632572182855</v>
+      </c>
+      <c r="E82">
+        <v>0.02851165423258101</v>
+      </c>
+      <c r="F82">
+        <v>-0.08194456440110055</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06370284782605742</v>
+        <v>0.05747553070455672</v>
       </c>
       <c r="C83">
-        <v>0.005524584541702164</v>
+        <v>0.003317202751601436</v>
       </c>
       <c r="D83">
-        <v>0.04203219594191657</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04839942915834432</v>
+      </c>
+      <c r="E83">
+        <v>0.001203232976395812</v>
+      </c>
+      <c r="F83">
+        <v>0.03529419634583333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06253390663304453</v>
+        <v>0.05687556331150901</v>
       </c>
       <c r="C84">
-        <v>0.01409025325681947</v>
+        <v>0.01088331659843095</v>
       </c>
       <c r="D84">
-        <v>0.06649126916813834</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07211442473993884</v>
+      </c>
+      <c r="E84">
+        <v>0.01393301327884087</v>
+      </c>
+      <c r="F84">
+        <v>-0.01445253286095759</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1379556099903713</v>
+        <v>0.1341907669900032</v>
       </c>
       <c r="C85">
-        <v>0.02965052890473433</v>
+        <v>0.02945595445383451</v>
       </c>
       <c r="D85">
-        <v>0.01451403087805354</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.00967067523830561</v>
+      </c>
+      <c r="E85">
+        <v>0.0366535909240834</v>
+      </c>
+      <c r="F85">
+        <v>-0.047955718752575</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1024345099657739</v>
+        <v>0.09384988609163565</v>
       </c>
       <c r="C86">
-        <v>-0.002504880111530477</v>
+        <v>-0.005459715319569955</v>
       </c>
       <c r="D86">
-        <v>0.004112291079978077</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05141748191213921</v>
+      </c>
+      <c r="E86">
+        <v>0.2189397846629015</v>
+      </c>
+      <c r="F86">
+        <v>0.9000722177827533</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09865558968643906</v>
+        <v>0.09380006759851035</v>
       </c>
       <c r="C87">
-        <v>0.02866633206940523</v>
+        <v>0.01968400619820014</v>
       </c>
       <c r="D87">
-        <v>0.07009884068028258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09600147515085711</v>
+      </c>
+      <c r="E87">
+        <v>-0.05160488916705027</v>
+      </c>
+      <c r="F87">
+        <v>-0.05172860972216398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06059498668877263</v>
+        <v>0.06041105658891135</v>
       </c>
       <c r="C88">
-        <v>0.005342666543104862</v>
+        <v>0.002921286368825522</v>
       </c>
       <c r="D88">
-        <v>0.05475790008232062</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05010567516307476</v>
+      </c>
+      <c r="E88">
+        <v>0.0246960071891875</v>
+      </c>
+      <c r="F88">
+        <v>-0.01512257259524514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1178665554600652</v>
+        <v>0.1272052848067649</v>
       </c>
       <c r="C89">
-        <v>0.004253680484705432</v>
+        <v>0.01355765983085673</v>
       </c>
       <c r="D89">
-        <v>-0.2531787035941789</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2447813113786865</v>
+      </c>
+      <c r="E89">
+        <v>-0.09238690462504068</v>
+      </c>
+      <c r="F89">
+        <v>0.008215268362989357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.137462931400325</v>
+        <v>0.1513368521424573</v>
       </c>
       <c r="C90">
-        <v>0.0234339100305462</v>
+        <v>0.03489508477554388</v>
       </c>
       <c r="D90">
-        <v>-0.2682700806326286</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2685229889513825</v>
+      </c>
+      <c r="E90">
+        <v>-0.1139982832018805</v>
+      </c>
+      <c r="F90">
+        <v>0.008821795694674438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1205508309078356</v>
+        <v>0.1204963855187531</v>
       </c>
       <c r="C91">
-        <v>0.0205018435206633</v>
+        <v>0.02102406278054302</v>
       </c>
       <c r="D91">
-        <v>-0.00998533327745235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01610048864400945</v>
+      </c>
+      <c r="E91">
+        <v>0.05372087342098645</v>
+      </c>
+      <c r="F91">
+        <v>0.0008714927597126828</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1389553915592833</v>
+        <v>0.1475299447032759</v>
       </c>
       <c r="C92">
-        <v>0.01441325972755765</v>
+        <v>0.0258745479283942</v>
       </c>
       <c r="D92">
-        <v>-0.3048408438666022</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2909197032700335</v>
+      </c>
+      <c r="E92">
+        <v>-0.1015836967636766</v>
+      </c>
+      <c r="F92">
+        <v>0.02001845095965203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.14042361165343</v>
+        <v>0.1526148005657125</v>
       </c>
       <c r="C93">
-        <v>0.01983899808863169</v>
+        <v>0.0298461798002542</v>
       </c>
       <c r="D93">
-        <v>-0.2695940488140811</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2646344552034478</v>
+      </c>
+      <c r="E93">
+        <v>-0.07627929663717577</v>
+      </c>
+      <c r="F93">
+        <v>-0.002439909029590037</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1341026674706812</v>
+        <v>0.1270918426865678</v>
       </c>
       <c r="C94">
-        <v>0.02761176219191938</v>
+        <v>0.02574953596635906</v>
       </c>
       <c r="D94">
-        <v>0.04194722457550614</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03989553938616722</v>
+      </c>
+      <c r="E94">
+        <v>0.05713156796320101</v>
+      </c>
+      <c r="F94">
+        <v>-0.03268768403391474</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.124880949887662</v>
+        <v>0.127766276818227</v>
       </c>
       <c r="C95">
-        <v>0.009812691046381352</v>
+        <v>0.003658131645777222</v>
       </c>
       <c r="D95">
-        <v>0.08654117665751945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09895024447973574</v>
+      </c>
+      <c r="E95">
+        <v>0.05462541468328107</v>
+      </c>
+      <c r="F95">
+        <v>-0.001474474981086876</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1225956862566887</v>
+        <v>0.1158908819423686</v>
       </c>
       <c r="C96">
-        <v>-0.9867256255818504</v>
+        <v>-0.9864184790056281</v>
       </c>
       <c r="D96">
-        <v>-0.01405838119614255</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05121782081496934</v>
+      </c>
+      <c r="E96">
+        <v>0.05228306717063656</v>
+      </c>
+      <c r="F96">
+        <v>-0.04209372038916154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1948128535275007</v>
+        <v>0.1958429171441476</v>
       </c>
       <c r="C97">
-        <v>-0.00447288344244598</v>
+        <v>-0.005287796475356337</v>
       </c>
       <c r="D97">
-        <v>-0.01359121784965839</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02132369022608889</v>
+      </c>
+      <c r="E97">
+        <v>0.02044955872583277</v>
+      </c>
+      <c r="F97">
+        <v>0.1140206688543898</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1996266087924236</v>
+        <v>0.2059795741802347</v>
       </c>
       <c r="C98">
-        <v>0.01192680859201743</v>
+        <v>0.007773298559086563</v>
       </c>
       <c r="D98">
-        <v>0.01136713497494474</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01475433134477716</v>
+      </c>
+      <c r="E98">
+        <v>-0.0765732998077172</v>
+      </c>
+      <c r="F98">
+        <v>0.09144181266476446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05537177549484073</v>
+        <v>0.05560019518865597</v>
       </c>
       <c r="C99">
-        <v>-0.002023381116125276</v>
+        <v>-0.004060529398577914</v>
       </c>
       <c r="D99">
-        <v>0.02576457849895953</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03857584235904669</v>
+      </c>
+      <c r="E99">
+        <v>0.02154343027869151</v>
+      </c>
+      <c r="F99">
+        <v>-0.004038213587769114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1429465910539755</v>
+        <v>0.1291055081540236</v>
       </c>
       <c r="C100">
-        <v>-0.03820721285615825</v>
+        <v>-0.05125388057427471</v>
       </c>
       <c r="D100">
-        <v>0.401733064917172</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3526663257174084</v>
+      </c>
+      <c r="E100">
+        <v>-0.8863544592216687</v>
+      </c>
+      <c r="F100">
+        <v>0.1446176546093057</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02511264259636112</v>
+        <v>0.02856083375397041</v>
       </c>
       <c r="C101">
-        <v>0.009579899147587254</v>
+        <v>0.008773630026410817</v>
       </c>
       <c r="D101">
-        <v>0.02494957347140734</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03063193571581404</v>
+      </c>
+      <c r="E101">
+        <v>0.01262856229753019</v>
+      </c>
+      <c r="F101">
+        <v>0.01437745674795834</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
